--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7503183333333334</v>
+        <v>0.259924</v>
       </c>
       <c r="H2">
-        <v>2.250955</v>
+        <v>0.779772</v>
       </c>
       <c r="I2">
-        <v>0.001871730106429625</v>
+        <v>0.0006491957374851489</v>
       </c>
       <c r="J2">
-        <v>0.001871730106429625</v>
+        <v>0.0006491957374851488</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.890486333333333</v>
+        <v>0.07058066666666667</v>
       </c>
       <c r="N2">
-        <v>5.671459</v>
+        <v>0.211742</v>
       </c>
       <c r="O2">
-        <v>0.9442400689667343</v>
+        <v>0.03405243646146196</v>
       </c>
       <c r="P2">
-        <v>0.9442400689667344</v>
+        <v>0.03405243646146196</v>
       </c>
       <c r="Q2">
-        <v>1.418466554816112</v>
+        <v>0.01834560920266667</v>
       </c>
       <c r="R2">
-        <v>12.766198993345</v>
+        <v>0.165110482824</v>
       </c>
       <c r="S2">
-        <v>0.001767362564782222</v>
+        <v>2.210669660176497E-05</v>
       </c>
       <c r="T2">
-        <v>0.001767362564782222</v>
+        <v>2.210669660176497E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.259924</v>
+      </c>
+      <c r="H3">
+        <v>0.779772</v>
+      </c>
+      <c r="I3">
+        <v>0.0006491957374851489</v>
+      </c>
+      <c r="J3">
+        <v>0.0006491957374851488</v>
+      </c>
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.7503183333333334</v>
-      </c>
-      <c r="H3">
-        <v>2.250955</v>
-      </c>
-      <c r="I3">
-        <v>0.001871730106429625</v>
-      </c>
-      <c r="J3">
-        <v>0.001871730106429625</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1116383333333333</v>
+        <v>1.890486333333333</v>
       </c>
       <c r="N3">
-        <v>0.334915</v>
+        <v>5.671459</v>
       </c>
       <c r="O3">
-        <v>0.05575993103326565</v>
+        <v>0.9120863940138783</v>
       </c>
       <c r="P3">
-        <v>0.05575993103326566</v>
+        <v>0.9120863940138783</v>
       </c>
       <c r="Q3">
-        <v>0.08376428820277779</v>
+        <v>0.4913827697053333</v>
       </c>
       <c r="R3">
-        <v>0.7538785938250001</v>
+        <v>4.422444927348001</v>
       </c>
       <c r="S3">
-        <v>0.0001043675416474029</v>
+        <v>0.0005921225992120098</v>
       </c>
       <c r="T3">
-        <v>0.0001043675416474029</v>
+        <v>0.0005921225992120097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>383.1307676666666</v>
+        <v>0.259924</v>
       </c>
       <c r="H4">
-        <v>1149.392303</v>
+        <v>0.779772</v>
       </c>
       <c r="I4">
-        <v>0.9557508602453543</v>
+        <v>0.0006491957374851489</v>
       </c>
       <c r="J4">
-        <v>0.9557508602453541</v>
+        <v>0.0006491957374851488</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.890486333333333</v>
+        <v>0.1116383333333333</v>
       </c>
       <c r="N4">
-        <v>5.671459</v>
+        <v>0.334915</v>
       </c>
       <c r="O4">
-        <v>0.9442400689667343</v>
+        <v>0.05386116952465989</v>
       </c>
       <c r="P4">
-        <v>0.9442400689667344</v>
+        <v>0.05386116952465989</v>
       </c>
       <c r="Q4">
-        <v>724.3034801533419</v>
+        <v>0.02901748215333333</v>
       </c>
       <c r="R4">
-        <v>6518.731321380077</v>
+        <v>0.26115733938</v>
       </c>
       <c r="S4">
-        <v>0.9024582581930889</v>
+        <v>3.49664416713742E-05</v>
       </c>
       <c r="T4">
-        <v>0.9024582581930889</v>
+        <v>3.496644167137419E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,51 +720,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>383.1307676666666</v>
+        <v>383.1307676666667</v>
       </c>
       <c r="H5">
         <v>1149.392303</v>
       </c>
       <c r="I5">
-        <v>0.9557508602453543</v>
+        <v>0.9569214896224009</v>
       </c>
       <c r="J5">
-        <v>0.9557508602453541</v>
+        <v>0.9569214896224006</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1116383333333333</v>
+        <v>0.07058066666666667</v>
       </c>
       <c r="N5">
-        <v>0.334915</v>
+        <v>0.211742</v>
       </c>
       <c r="O5">
-        <v>0.05575993103326565</v>
+        <v>0.03405243646146196</v>
       </c>
       <c r="P5">
-        <v>0.05575993103326566</v>
+        <v>0.03405243646146196</v>
       </c>
       <c r="Q5">
-        <v>42.77208035102722</v>
+        <v>27.04162500242511</v>
       </c>
       <c r="R5">
-        <v>384.948723159245</v>
+        <v>243.374625021826</v>
       </c>
       <c r="S5">
-        <v>0.05329260205226528</v>
+        <v>0.03258550822397433</v>
       </c>
       <c r="T5">
-        <v>0.05329260205226527</v>
+        <v>0.03258550822397433</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.98778433333334</v>
+        <v>383.1307676666667</v>
       </c>
       <c r="H6">
-        <v>50.96335300000001</v>
+        <v>1149.392303</v>
       </c>
       <c r="I6">
-        <v>0.04237740964821623</v>
+        <v>0.9569214896224009</v>
       </c>
       <c r="J6">
-        <v>0.04237740964821622</v>
+        <v>0.9569214896224006</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>5.671459</v>
       </c>
       <c r="O6">
-        <v>0.9442400689667343</v>
+        <v>0.9120863940138783</v>
       </c>
       <c r="P6">
-        <v>0.9442400689667344</v>
+        <v>0.9120863940138783</v>
       </c>
       <c r="Q6">
-        <v>32.11517411578079</v>
+        <v>724.3034801533421</v>
       </c>
       <c r="R6">
-        <v>289.0365670420271</v>
+        <v>6518.731321380078</v>
       </c>
       <c r="S6">
-        <v>0.04001444820886324</v>
+        <v>0.8727950708240845</v>
       </c>
       <c r="T6">
-        <v>0.04001444820886324</v>
+        <v>0.8727950708240843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.98778433333334</v>
+        <v>383.1307676666667</v>
       </c>
       <c r="H7">
-        <v>50.96335300000001</v>
+        <v>1149.392303</v>
       </c>
       <c r="I7">
-        <v>0.04237740964821623</v>
+        <v>0.9569214896224009</v>
       </c>
       <c r="J7">
-        <v>0.04237740964821622</v>
+        <v>0.9569214896224006</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,22 +868,208 @@
         <v>0.334915</v>
       </c>
       <c r="O7">
-        <v>0.05575993103326565</v>
+        <v>0.05386116952465989</v>
       </c>
       <c r="P7">
-        <v>0.05575993103326566</v>
+        <v>0.05386116952465989</v>
       </c>
       <c r="Q7">
+        <v>42.77208035102723</v>
+      </c>
+      <c r="R7">
+        <v>384.948723159245</v>
+      </c>
+      <c r="S7">
+        <v>0.0515409105743422</v>
+      </c>
+      <c r="T7">
+        <v>0.05154091057434219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>16.98778433333333</v>
+      </c>
+      <c r="H8">
+        <v>50.963353</v>
+      </c>
+      <c r="I8">
+        <v>0.042429314640114</v>
+      </c>
+      <c r="J8">
+        <v>0.04242931464011399</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.07058066666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.211742</v>
+      </c>
+      <c r="O8">
+        <v>0.03405243646146196</v>
+      </c>
+      <c r="P8">
+        <v>0.03405243646146196</v>
+      </c>
+      <c r="Q8">
+        <v>1.199009143436222</v>
+      </c>
+      <c r="R8">
+        <v>10.791082290926</v>
+      </c>
+      <c r="S8">
+        <v>0.00144482154088586</v>
+      </c>
+      <c r="T8">
+        <v>0.00144482154088586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>16.98778433333333</v>
+      </c>
+      <c r="H9">
+        <v>50.963353</v>
+      </c>
+      <c r="I9">
+        <v>0.042429314640114</v>
+      </c>
+      <c r="J9">
+        <v>0.04242931464011399</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.890486333333333</v>
+      </c>
+      <c r="N9">
+        <v>5.671459</v>
+      </c>
+      <c r="O9">
+        <v>0.9120863940138783</v>
+      </c>
+      <c r="P9">
+        <v>0.9120863940138783</v>
+      </c>
+      <c r="Q9">
+        <v>32.11517411578078</v>
+      </c>
+      <c r="R9">
+        <v>289.036567042027</v>
+      </c>
+      <c r="S9">
+        <v>0.03869920059058183</v>
+      </c>
+      <c r="T9">
+        <v>0.03869920059058182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>16.98778433333333</v>
+      </c>
+      <c r="H10">
+        <v>50.963353</v>
+      </c>
+      <c r="I10">
+        <v>0.042429314640114</v>
+      </c>
+      <c r="J10">
+        <v>0.04242931464011399</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1116383333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.334915</v>
+      </c>
+      <c r="O10">
+        <v>0.05386116952465989</v>
+      </c>
+      <c r="P10">
+        <v>0.05386116952465989</v>
+      </c>
+      <c r="Q10">
         <v>1.896487929999445</v>
       </c>
-      <c r="R7">
-        <v>17.06839136999501</v>
-      </c>
-      <c r="S7">
-        <v>0.002362961439352983</v>
-      </c>
-      <c r="T7">
-        <v>0.002362961439352983</v>
+      <c r="R10">
+        <v>17.068391369995</v>
+      </c>
+      <c r="S10">
+        <v>0.002285292508646314</v>
+      </c>
+      <c r="T10">
+        <v>0.002285292508646313</v>
       </c>
     </row>
   </sheetData>
